--- a/run/output/iecodebook/auto_drop.xlsx
+++ b/run/output/iecodebook/auto_drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inspiron\Desktop\DIME\practice\iecodebook_practice\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922FBD0-42FA-4444-A4D2-BB970CD342EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FECEFCA-5392-4AE2-99CC-45521509334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1116" yWindow="1500" windowWidth="13524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>list_name</t>
   </si>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,10 +739,10 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -815,6 +815,9 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
       <c r="H3" t="s">
         <v>88</v>
       </c>
@@ -835,6 +838,9 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
       <c r="H4" t="s">
         <v>89</v>
       </c>
@@ -855,6 +861,9 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" t="s">
         <v>90</v>
       </c>
@@ -875,6 +884,9 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" t="s">
         <v>91</v>
       </c>
@@ -895,6 +907,9 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" t="s">
         <v>92</v>
       </c>
@@ -915,6 +930,9 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" t="s">
         <v>93</v>
       </c>
@@ -935,6 +953,9 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -954,6 +975,9 @@
       </c>
       <c r="D10" t="s">
         <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>95</v>
@@ -1089,7 +1113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1168,7 +1192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
